--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R101cbb317a854459"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Re561b17ffd7b4986"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R53773d14b04e41fe"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R6cd9571c644f4ce6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rf6bc58d25e3843b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R3d6d298d0296454d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Ra30062ccefd34b1f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R7ef80182013f4b97"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R1a44db2918974dc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R3631a3aebfb94979"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R3d6d298d0296454d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Ra30062ccefd34b1f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R7ef80182013f4b97"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R1a44db2918974dc3"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R3631a3aebfb94979"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R99c3b60763c64fc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rcf9d66993c64453f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R2713032a0e524d5b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R9d682c0d3c1f4cc2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rc389a8b86a194ab3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R99c3b60763c64fc3"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rcf9d66993c64453f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R2713032a0e524d5b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R9d682c0d3c1f4cc2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rc389a8b86a194ab3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Ra55f922ce9144141"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Re5f368371864418e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R008986c5bde14fed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R359ac57f661c4050"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R33036f54109941b5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Ra55f922ce9144141"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Re5f368371864418e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R008986c5bde14fed"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R359ac57f661c4050"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R33036f54109941b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R9e8a6c288426446b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rb904c11b036b4229"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rd790e6bfdc5e4dfc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R0eb90478ec9f4c04"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R235bcaf8cd444a52"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R9e8a6c288426446b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rb904c11b036b4229"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rd790e6bfdc5e4dfc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R0eb90478ec9f4c04"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R235bcaf8cd444a52"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rc36223878fb941e2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R9b6efdd328cc4dbb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R9642f77010b942c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R0a4ac65d8d414dae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R1b71fb08946d4f8f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rc36223878fb941e2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R9b6efdd328cc4dbb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R9642f77010b942c5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R0a4ac65d8d414dae"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R1b71fb08946d4f8f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Re2e2adab89be42c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rb313de33dec6451a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Ra7ab0d90e0d94955"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rf3f2eeefc94b4ac1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rd5801013ce4f4e39"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Re2e2adab89be42c5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rb313de33dec6451a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Ra7ab0d90e0d94955"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rf3f2eeefc94b4ac1"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rd5801013ce4f4e39"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rb65493bc53fe4f0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R2e15e57dadf54633"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R44377fa576af439b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rccfa1b6d9d08454a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rb9ea787fc0e54230"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rb65493bc53fe4f0b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R2e15e57dadf54633"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R44377fa576af439b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rccfa1b6d9d08454a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rb9ea787fc0e54230"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R67310c09d9004101"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R64172c392a6d43ad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Ra58a2a4b95144e66"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R61885815bc524900"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Reb1e211b29c74de0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R67310c09d9004101"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R64172c392a6d43ad"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Ra58a2a4b95144e66"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R61885815bc524900"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Reb1e211b29c74de0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R77de9db843ec4170"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rbf1c4eed3bf8437b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R474e8e027155483c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R1e131c2c46e74773"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R377cc51912d94cbb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R77de9db843ec4170"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rbf1c4eed3bf8437b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R474e8e027155483c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R1e131c2c46e74773"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R377cc51912d94cbb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R6aa276c71e0d479b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R1ed23537b7bc4e97"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rc5cf4a912d924448"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Re6275f82a92a4d6f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R99bdf264d1c541dd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R6aa276c71e0d479b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R1ed23537b7bc4e97"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rc5cf4a912d924448"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Re6275f82a92a4d6f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R99bdf264d1c541dd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Ra33cbdbbaae5453c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rbec1ba8ae9c244a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R09c3c0dc38404e67"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R04ba215f6aca4007"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R0ae3292b89c14131"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -34,18 +34,18 @@
       <x:b/>
       <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Ra33cbdbbaae5453c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rbec1ba8ae9c244a1"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R09c3c0dc38404e67"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R04ba215f6aca4007"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R0ae3292b89c14131"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R79956f5a12374969"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rf6e07a9d39a345f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R70914a4e01894b2d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Ra40d4ad9afdc4d2d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R09650fd0092a4a91"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -34,18 +34,18 @@
       <x:b/>
       <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/047_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R79956f5a12374969"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rf6e07a9d39a345f4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R70914a4e01894b2d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Ra40d4ad9afdc4d2d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R09650fd0092a4a91"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Ra169af674b5f4cc6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R10cd3c2c68324aeb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rdb43e267fc844db8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R5bec80dfb9444d52"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R00be4f43378544d4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
